--- a/Team-Data/2007-08/3-4-2007-08.xlsx
+++ b/Team-Data/2007-08/3-4-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J2" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L2" t="n">
         <v>4.1</v>
@@ -696,25 +763,25 @@
         <v>12.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O2" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="P2" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R2" t="n">
         <v>12.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U2" t="n">
         <v>21.3</v>
@@ -732,25 +799,25 @@
         <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>20</v>
@@ -768,16 +835,16 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -798,10 +865,10 @@
         <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
@@ -813,10 +880,10 @@
         <v>16</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BC2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -974,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -989,13 +1056,13 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,31 +1115,31 @@
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
         <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O4" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P4" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.711</v>
+        <v>0.709</v>
       </c>
       <c r="R4" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S4" t="n">
         <v>29.4</v>
@@ -1081,13 +1148,13 @@
         <v>40.6</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
         <v>4.9</v>
@@ -1096,19 +1163,19 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.2</v>
+        <v>-5.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1123,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
@@ -1138,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
@@ -1159,19 +1226,19 @@
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>17</v>
       </c>
       <c r="AW4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX4" t="n">
         <v>14</v>
       </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1180,10 +1247,10 @@
         <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -1212,34 +1279,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
         <v>84.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.429</v>
+        <v>0.427</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
         <v>0.349</v>
@@ -1248,7 +1315,7 @@
         <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q5" t="n">
         <v>0.743</v>
@@ -1257,13 +1324,13 @@
         <v>13.4</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V5" t="n">
         <v>14.8</v>
@@ -1272,10 +1339,10 @@
         <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
         <v>21.4</v>
@@ -1284,28 +1351,28 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1323,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1341,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1362,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1493,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1505,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1541,7 +1608,7 @@
         <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1666,10 +1733,10 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>
@@ -1699,7 +1766,7 @@
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
         <v>8</v>
@@ -1729,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1857,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
@@ -1887,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1905,13 +1972,13 @@
         <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -1940,49 +2007,49 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J9" t="n">
         <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
         <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
         <v>29.6</v>
@@ -2000,7 +2067,7 @@
         <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
@@ -2009,16 +2076,16 @@
         <v>20.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,22 +2115,22 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
@@ -2075,19 +2142,19 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ9" t="n">
         <v>14</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="J10" t="n">
-        <v>89.2</v>
+        <v>89</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M10" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.353</v>
+        <v>0.349</v>
       </c>
       <c r="O10" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
@@ -2170,13 +2237,13 @@
         <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
         <v>23.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
@@ -2185,22 +2252,22 @@
         <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
         <v>23.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.6</v>
+        <v>110.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2215,13 +2282,13 @@
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2233,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2251,10 +2318,10 @@
         <v>13</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
@@ -2269,13 +2336,13 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2449,25 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
@@ -2427,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2600,7 +2667,7 @@
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
         <v>9</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>27</v>
@@ -2797,7 +2864,7 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,7 +2935,7 @@
         <v>39.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2880,16 +2947,16 @@
         <v>20.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P14" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
         <v>10.7</v>
@@ -2910,7 +2977,7 @@
         <v>8.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2919,16 +2986,16 @@
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2955,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>10</v>
@@ -2979,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>15</v>
@@ -2988,13 +3055,13 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>0.233</v>
+        <v>0.237</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L15" t="n">
         <v>7.7</v>
@@ -3062,22 +3129,22 @@
         <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O15" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T15" t="n">
         <v>41.3</v>
@@ -3092,10 +3159,10 @@
         <v>6.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
@@ -3107,10 +3174,10 @@
         <v>99.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3128,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3140,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3155,13 +3222,13 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3170,10 +3237,10 @@
         <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3185,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="n">
         <v>30</v>
@@ -3325,7 +3392,7 @@
         <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>17</v>
@@ -3358,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -3486,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3504,10 +3571,10 @@
         <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3546,7 +3613,7 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="n">
-        <v>0.203</v>
+        <v>0.207</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3599,37 +3666,37 @@
         <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R18" t="n">
         <v>12.2</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
@@ -3647,16 +3714,16 @@
         <v>23.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.5</v>
+        <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,7 +3738,7 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3698,19 +3765,19 @@
         <v>27</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>9</v>
@@ -3719,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3731,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>0.433</v>
+        <v>0.441</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="J19" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>6</v>
@@ -3790,34 +3857,34 @@
         <v>17.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O19" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R19" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S19" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T19" t="n">
         <v>42.6</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3826,31 +3893,31 @@
         <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,7 +3926,7 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>19</v>
@@ -3880,10 +3947,10 @@
         <v>25</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>9</v>
@@ -3892,10 +3959,10 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4041,13 +4108,13 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM20" t="n">
         <v>9</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>8</v>
       </c>
       <c r="AN20" t="n">
         <v>2</v>
@@ -4062,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
@@ -4071,7 +4138,7 @@
         <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4083,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4277,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="n">
         <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,7 +4391,7 @@
         <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.471</v>
@@ -4336,22 +4403,22 @@
         <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.726</v>
       </c>
       <c r="R22" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T22" t="n">
         <v>42.2</v>
@@ -4372,22 +4439,22 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
         <v>104.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -4414,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4426,10 +4493,10 @@
         <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
         <v>12</v>
@@ -4447,19 +4514,19 @@
         <v>24</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
         <v>17</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>13</v>
@@ -4629,16 +4696,16 @@
         <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>20</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="n">
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.667</v>
+        <v>0.661</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="J24" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.492</v>
+        <v>0.493</v>
       </c>
       <c r="L24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.384</v>
       </c>
       <c r="O24" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
@@ -4721,7 +4788,7 @@
         <v>40.9</v>
       </c>
       <c r="U24" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="V24" t="n">
         <v>14.1</v>
@@ -4730,28 +4797,28 @@
         <v>6.9</v>
       </c>
       <c r="X24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z24" t="n">
         <v>19.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.3</v>
+        <v>109.5</v>
       </c>
       <c r="AC24" t="n">
         <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -4763,7 +4830,7 @@
         <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4781,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
@@ -4796,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4814,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
         <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.508</v>
+        <v>0.517</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J25" t="n">
         <v>79</v>
@@ -4876,13 +4943,13 @@
         <v>0.45</v>
       </c>
       <c r="L25" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O25" t="n">
         <v>17.9</v>
@@ -4891,7 +4958,7 @@
         <v>23.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R25" t="n">
         <v>10.5</v>
@@ -4903,7 +4970,7 @@
         <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="V25" t="n">
         <v>13.2</v>
@@ -4918,19 +4985,19 @@
         <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4945,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ25" t="n">
         <v>24</v>
@@ -4960,10 +5027,10 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4972,13 +5039,13 @@
         <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
         <v>19</v>
@@ -4993,10 +5060,10 @@
         <v>20</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" t="n">
         <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.45</v>
+        <v>0.458</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
         <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="P26" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R26" t="n">
         <v>10.5</v>
@@ -5085,7 +5152,7 @@
         <v>40.3</v>
       </c>
       <c r="U26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V26" t="n">
         <v>16.1</v>
@@ -5094,25 +5161,25 @@
         <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
         <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5127,7 +5194,7 @@
         <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5154,13 +5221,13 @@
         <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
         <v>22</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5172,16 +5239,16 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -5216,64 +5283,64 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.712</v>
+        <v>0.707</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
         <v>78.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L27" t="n">
         <v>7.8</v>
       </c>
       <c r="M27" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N27" t="n">
         <v>0.377</v>
       </c>
       <c r="O27" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P27" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R27" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V27" t="n">
         <v>12.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5282,19 +5349,19 @@
         <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5306,7 +5373,7 @@
         <v>3</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5315,10 +5382,10 @@
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5333,19 +5400,19 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5363,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" t="n">
-        <v>0.267</v>
+        <v>0.271</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5419,7 +5486,7 @@
         <v>85.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L28" t="n">
         <v>4.1</v>
@@ -5428,10 +5495,10 @@
         <v>12.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
         <v>22.9</v>
@@ -5446,10 +5513,10 @@
         <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
         <v>16.3</v>
@@ -5458,13 +5525,13 @@
         <v>6.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA28" t="n">
         <v>19.8</v>
@@ -5473,10 +5540,10 @@
         <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5497,19 +5564,19 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5536,13 +5603,13 @@
         <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
@@ -5551,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="n">
         <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.542</v>
+        <v>0.552</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,28 +5665,28 @@
         <v>37.8</v>
       </c>
       <c r="J29" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L29" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M29" t="n">
         <v>18.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.41</v>
+        <v>0.413</v>
       </c>
       <c r="O29" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P29" t="n">
         <v>20.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.699999999999999</v>
@@ -5628,10 +5695,10 @@
         <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V29" t="n">
         <v>11.7</v>
@@ -5640,31 +5707,31 @@
         <v>6.8</v>
       </c>
       <c r="X29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y29" t="n">
         <v>4</v>
       </c>
-      <c r="Y29" t="n">
-        <v>3.9</v>
-      </c>
       <c r="Z29" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>14</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5709,7 +5776,7 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5718,22 +5785,22 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY29" t="n">
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>5.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5879,7 +5946,7 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>16</v>
@@ -5903,7 +5970,7 @@
         <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI31" t="n">
         <v>20</v>
@@ -6052,7 +6119,7 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6067,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
         <v>14</v>
@@ -6076,13 +6143,13 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW31" t="n">
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6091,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-4-2007-08</t>
+          <t>2008-03-04</t>
         </is>
       </c>
     </row>
